--- a/model_lca/Material_inventory_mapping.xlsx
+++ b/model_lca/Material_inventory_mapping.xlsx
@@ -30,7 +30,7 @@
     <author>Rhythima Shinde</author>
   </authors>
   <commentList>
-    <comment ref="I31" authorId="0" shapeId="0">
+    <comment ref="I12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -38,7 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rhythima Shinde:</t>
         </r>
@@ -47,10 +47,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-https://testbook.com/question-answer/for-1-cubic-meter-of-r-c-c-beam-approximate-quant--614d8bbfd5141e541030a9e3</t>
+kg/m2</t>
         </r>
       </text>
     </comment>
@@ -62,7 +62,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rhythima Shinde:</t>
         </r>
@@ -71,7 +71,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://testbook.com/question-answer/for-1-cubic-meter-of-r-c-c-beam-approximate-quant--614d8bbfd5141e541030a9e3</t>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rhythima Shinde:</t>
         </r>
@@ -95,7 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://testbook.com/question-answer/for-1-cubic-meter-of-r-c-c-beam-approximate-quant--614d8bbfd5141e541030a9e3</t>
@@ -110,7 +110,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rhythima Shinde:</t>
         </r>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://testbook.com/question-answer/for-1-cubic-meter-of-r-c-c-beam-approximate-quant--614d8bbfd5141e541030a9e3</t>
@@ -134,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Rhythima Shinde:</t>
         </r>
@@ -143,10 +143,82 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 https://testbook.com/question-answer/for-1-cubic-meter-of-r-c-c-beam-approximate-quant--614d8bbfd5141e541030a9e3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://testbook.com/question-answer/for-1-cubic-meter-of-r-c-c-beam-approximate-quant--614d8bbfd5141e541030a9e3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I87" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+kg/m2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I92" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rhythima Shinde:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+kg/m2</t>
         </r>
       </text>
     </comment>
@@ -155,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="294">
   <si>
     <t xml:space="preserve">Adhesive mortar </t>
   </si>
@@ -863,13 +935,187 @@
   </si>
   <si>
     <t>Polypropylene (PP)</t>
+  </si>
+  <si>
+    <t>Organic construction adhesive/embedding mortar</t>
+  </si>
+  <si>
+    <t>Underlay anhydrite, 60 mm</t>
+  </si>
+  <si>
+    <t>Bitumen emulsion, 1 coat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 </t>
+  </si>
+  <si>
+    <t>concrete brick</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35-60 </t>
+  </si>
+  <si>
+    <t>ceramic/stoneware plate</t>
+  </si>
+  <si>
+    <t>clay bricks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-35 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100-165 </t>
+  </si>
+  <si>
+    <t>Galvanized steel sheet</t>
+  </si>
+  <si>
+    <t>broken gravel</t>
+  </si>
+  <si>
+    <t>gypsum/white plaster</t>
+  </si>
+  <si>
+    <t>Lime-cement/cement-lime plaster</t>
+  </si>
+  <si>
+    <t>Linoleum, 2.5mm</t>
+  </si>
+  <si>
+    <t>Mastic asphalt, 27.5 mm</t>
+  </si>
+  <si>
+    <t>phenolic resin (PF)</t>
+  </si>
+  <si>
+    <t>Solid beech / oak, kiln dried, planed</t>
+  </si>
+  <si>
+    <t>Wood, aluminum clad</t>
+  </si>
+  <si>
+    <t>Metal-glass insert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal with glass insert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood, glass insert </t>
+  </si>
+  <si>
+    <t>Wood/ aluminium, triple glazing</t>
+  </si>
+  <si>
+    <t>Wood/ aluminium, double glazing</t>
+  </si>
+  <si>
+    <t>Wood/ aluminium, transparent insulation</t>
+  </si>
+  <si>
+    <t>Aluminium overhead light</t>
+  </si>
+  <si>
+    <t>Wood, triple glazing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wood, double glazing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastic, double glazing </t>
+  </si>
+  <si>
+    <t>Exterior door, wood, aluminium-clad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- </t>
+  </si>
+  <si>
+    <t>Exterior door, wood, glass insert</t>
+  </si>
+  <si>
+    <t>Double insulating glazing, Ug value 1.1 W/m 2K, thickness 24 mm</t>
+  </si>
+  <si>
+    <t>Triple glazing, Ug value 0.6 W/m 2K, thickness 40 mm</t>
+  </si>
+  <si>
+    <t>'window frame production, wood-metal, U=1.6 W/m2K' (kilogram, RoW, None)</t>
+  </si>
+  <si>
+    <t>USED ECOINVENT instead of window frame wood</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>'market for electricity, low voltage'</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>USED ecoinvent</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump water brine (28.1 kW)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump water brine (40.8 kW)</t>
+  </si>
+  <si>
+    <t>Near/ district heating from cogeneration</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump, air water (4.2 kW)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump water brine (24.9 kW)</t>
+  </si>
+  <si>
+    <t>Central, hot water only: Modulating condensing boiler (kW 70)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Wood pellet heating (67.2 kW)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump water brine (60 kW)</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump water brine (16.7 kW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central hot water only, electric heat pump </t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: District heating</t>
+  </si>
+  <si>
+    <t>Combined with central heat generator: Electric heat pump water brine (135 kW)</t>
+  </si>
+  <si>
+    <t>heat production, wood chips from industry, at furnace 300kW, state-of-the-art 2014' (megajoule, CH, None)</t>
+  </si>
+  <si>
+    <t>wood chips</t>
+  </si>
+  <si>
+    <t>'market for transport, freight, lorry 28 metric ton, fatty acid methyl ester 100%' (ton kilometer, CH, None)</t>
+  </si>
+  <si>
+    <t>lorry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,34 +1156,31 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial-BoldMT"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1071,27 +1314,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF949599"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF949599"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF949599"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF949599"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1131,7 +1359,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1142,15 +1401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1432,16 +1683,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O167"/>
+  <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K200" sqref="K200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" style="34" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" hidden="1" customWidth="1"/>
@@ -1449,14 +1700,14 @@
     <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="29" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="23" customWidth="1"/>
     <col min="12" max="12" width="34.7109375" style="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>214</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1493,20 +1744,29 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="24"/>
+      <c r="H2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I2" s="2">
+        <v>470</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K2" s="24">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="L2" s="31"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="3">
@@ -1531,7 +1791,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -1557,8 +1817,8 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="3">
@@ -1583,50 +1843,76 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="24"/>
       <c r="E6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="24"/>
+      <c r="H6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="3">
+        <v>470</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="24">
+        <v>0.48499999999999999</v>
+      </c>
       <c r="L6" s="31"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="24"/>
+      <c r="E7" s="3"/>
+      <c r="H7" t="s">
+        <v>229</v>
+      </c>
+      <c r="I7" s="3">
+        <v>60</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K7" s="24">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="L7" s="31"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="24"/>
-      <c r="E8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="24"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1670</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="23">
+        <v>0.75800000000000001</v>
+      </c>
       <c r="L8" s="31"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="3" t="s">
-        <v>142</v>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="24"/>
@@ -1639,239 +1925,323 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="24"/>
+      <c r="E10" s="3"/>
+      <c r="H10" t="s">
+        <v>237</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K10" s="24">
+        <v>8.6999999999999994E-2</v>
+      </c>
       <c r="L10" s="31"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="3" t="s">
+      <c r="H12" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I12" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K12" s="40">
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
-        <v>30</v>
-      </c>
-      <c r="C12" s="24">
+      <c r="B13" s="3">
+        <v>30</v>
+      </c>
+      <c r="C13" s="24">
         <v>1160</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="H12" t="s">
+      <c r="E13" s="3"/>
+      <c r="H13" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="39">
         <v>1000</v>
       </c>
-      <c r="J12" t="s">
-        <v>171</v>
-      </c>
-      <c r="K12" s="24">
+      <c r="J13" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="41">
         <v>3.06</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="2" t="s">
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="3" t="s">
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="24"/>
-      <c r="E15" s="3"/>
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="24"/>
       <c r="E16" s="3"/>
       <c r="K16" s="24"/>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="24"/>
+      <c r="E17" s="3"/>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17" s="1">
+        <v>900</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" s="24">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
+      <c r="H18" t="s">
+        <v>240</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2300</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" s="24">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="24"/>
-      <c r="E18" s="3"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="24"/>
       <c r="E19" s="3"/>
-      <c r="K19" s="24"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+      <c r="H19" t="s">
+        <v>202</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="24">
+        <v>0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="24"/>
+      <c r="E20" s="3"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="47"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="24"/>
+      <c r="E21" s="3"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2">
-        <v>30</v>
-      </c>
-      <c r="C20" s="23">
+      <c r="B22" s="2">
+        <v>30</v>
+      </c>
+      <c r="C22" s="23">
         <v>1850</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H22" t="s">
         <v>215</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I22" s="1">
         <v>1850</v>
       </c>
-      <c r="J20" t="s">
-        <v>171</v>
-      </c>
-      <c r="K20" s="24">
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" s="24">
         <v>0.125</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="24"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3" t="s">
+      <c r="K23" s="24"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="24"/>
-      <c r="E22" s="3"/>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="24"/>
+      <c r="E24" s="3"/>
+      <c r="K24" s="24"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="24"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
+      <c r="H25" t="s">
+        <v>243</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2600</v>
+      </c>
+      <c r="J25" t="s">
+        <v>171</v>
+      </c>
+      <c r="K25" s="24">
+        <v>0.77700000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K24" s="24"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="5" t="s">
+      <c r="K26" s="24"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="26"/>
-      <c r="E25" s="5"/>
-      <c r="K25" s="24"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="26"/>
+      <c r="E27" s="5"/>
+      <c r="H27" t="s">
+        <v>244</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1700</v>
+      </c>
+      <c r="J27" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="24">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3" t="s">
+      <c r="H28" t="s">
+        <v>182</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>171</v>
+      </c>
+      <c r="K28" s="24">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="24"/>
-      <c r="E27" s="3"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="24"/>
+      <c r="E29" s="3"/>
+      <c r="H29" t="s">
+        <v>232</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2150</v>
+      </c>
+      <c r="J29" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="24">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="24"/>
-      <c r="E28" s="3"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="24"/>
+      <c r="E30" s="3"/>
+      <c r="K30" s="24"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="34" t="s">
+      <c r="H31" t="s">
+        <v>232</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2150</v>
+      </c>
+      <c r="J31" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="24">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
         <v>7</v>
-      </c>
-      <c r="B30" s="2">
-        <v>60</v>
-      </c>
-      <c r="C30" s="23">
-        <v>2380</v>
-      </c>
-      <c r="H30" t="s">
-        <v>217</v>
-      </c>
-      <c r="I30" s="1">
-        <v>2350</v>
-      </c>
-      <c r="J30" t="s">
-        <v>171</v>
-      </c>
-      <c r="K30" s="24">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="34"/>
-      <c r="B31" s="2">
-        <v>60</v>
-      </c>
-      <c r="C31" s="23">
-        <v>80</v>
-      </c>
-      <c r="H31" t="s">
-        <v>200</v>
-      </c>
-      <c r="I31" s="1">
-        <v>80</v>
-      </c>
-      <c r="J31" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="24">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="L31" s="32" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="34" t="s">
-        <v>21</v>
       </c>
       <c r="B32" s="2">
         <v>60</v>
@@ -1892,8 +2262,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="34"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
       <c r="B33" s="2">
         <v>60</v>
       </c>
@@ -1916,9 +2286,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="3" t="s">
-        <v>143</v>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>21</v>
       </c>
       <c r="B34" s="2">
         <v>60</v>
@@ -1939,8 +2309,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="3"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
       <c r="B35" s="2">
         <v>60</v>
       </c>
@@ -1959,10 +2329,13 @@
       <c r="K35" s="24">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
-        <v>9</v>
+      <c r="L35" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B36" s="2">
         <v>60</v>
@@ -1983,7 +2356,8 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
       <c r="B37" s="2">
         <v>60</v>
       </c>
@@ -2003,9 +2377,9 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
-        <v>8</v>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="34" t="s">
+        <v>9</v>
       </c>
       <c r="B38" s="2">
         <v>60</v>
@@ -2026,7 +2400,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>60</v>
       </c>
@@ -2046,146 +2420,147 @@
         <v>0.68200000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="2">
+        <v>60</v>
+      </c>
+      <c r="C40" s="23">
+        <v>2380</v>
+      </c>
+      <c r="H40" t="s">
+        <v>217</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2350</v>
+      </c>
+      <c r="J40" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <v>60</v>
+      </c>
+      <c r="C41" s="23">
+        <v>80</v>
+      </c>
+      <c r="H41" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="1">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>171</v>
+      </c>
+      <c r="K41" s="24">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="5">
-        <v>30</v>
-      </c>
-      <c r="C40" s="24">
+      <c r="B42" s="5">
+        <v>30</v>
+      </c>
+      <c r="C42" s="24">
         <v>2190</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="H40" s="38" t="s">
+      <c r="E42" s="3"/>
+      <c r="H42" t="s">
         <v>232</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I42" s="1">
         <v>2150</v>
       </c>
-      <c r="J40" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K40" s="39">
+      <c r="J42" t="s">
+        <v>171</v>
+      </c>
+      <c r="K42" s="24">
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="3" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="24"/>
-      <c r="E41" s="3"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="2" t="s">
+      <c r="B43" s="3"/>
+      <c r="C43" s="24"/>
+      <c r="E43" s="3"/>
+      <c r="K43" s="24"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="2">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s">
-        <v>180</v>
-      </c>
-      <c r="I42" s="1">
-        <v>15</v>
-      </c>
-      <c r="J42" t="s">
-        <v>171</v>
-      </c>
-      <c r="K42" s="23">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="2">
-        <v>30</v>
-      </c>
-      <c r="H43" t="s">
-        <v>180</v>
-      </c>
-      <c r="I43" s="1">
-        <v>30</v>
-      </c>
-      <c r="J43" t="s">
-        <v>171</v>
-      </c>
-      <c r="K43" s="23">
-        <v>7.64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="3">
-        <v>30</v>
-      </c>
-      <c r="C44" s="24"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="2">
+        <v>30</v>
+      </c>
       <c r="H44" t="s">
         <v>180</v>
       </c>
       <c r="I44" s="1">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>171</v>
+      </c>
+      <c r="K44" s="24">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2">
+        <v>30</v>
+      </c>
+      <c r="H45" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="1">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>171</v>
+      </c>
+      <c r="K45" s="24">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="3">
+        <v>30</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="E46" s="3"/>
+      <c r="H46" t="s">
+        <v>180</v>
+      </c>
+      <c r="I46" s="1">
         <v>35</v>
       </c>
-      <c r="J44" t="s">
-        <v>171</v>
-      </c>
-      <c r="K44" s="23">
+      <c r="J46" t="s">
+        <v>171</v>
+      </c>
+      <c r="K46" s="24">
         <v>7.64</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A45" s="3" t="s">
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B45" s="5">
-        <v>30</v>
-      </c>
-      <c r="C45" s="24"/>
-      <c r="E45" s="3"/>
-      <c r="H45" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I45" s="38">
-        <v>30</v>
-      </c>
-      <c r="J45" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K45" s="39">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="5">
-        <v>30</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="I46" s="38">
-        <v>35</v>
-      </c>
-      <c r="J46" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K46" s="39">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="40" t="s">
-        <v>24</v>
       </c>
       <c r="B47" s="5">
         <v>30</v>
@@ -2193,39 +2568,41 @@
       <c r="C47" s="24"/>
       <c r="E47" s="3"/>
       <c r="H47" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="I47" s="1">
-        <v>685</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
         <v>171</v>
       </c>
       <c r="K47" s="24">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="40"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="24"/>
-      <c r="E48" s="3"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="5">
+        <v>30</v>
+      </c>
       <c r="H48" t="s">
-        <v>229</v>
-      </c>
-      <c r="I48">
-        <v>60</v>
+        <v>182</v>
+      </c>
+      <c r="I48" s="1">
+        <v>35</v>
       </c>
       <c r="J48" t="s">
         <v>171</v>
       </c>
-      <c r="K48">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="3" t="s">
-        <v>25</v>
+      <c r="K48" s="24">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
+        <v>24</v>
       </c>
       <c r="B49" s="5">
         <v>30</v>
@@ -2233,736 +2610,868 @@
       <c r="C49" s="24"/>
       <c r="E49" s="3"/>
       <c r="H49" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I49" s="1">
-        <v>910</v>
+        <v>685</v>
       </c>
       <c r="J49" t="s">
         <v>171</v>
       </c>
       <c r="K49" s="24">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B51" s="3"/>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="47"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="24"/>
+      <c r="E50" s="3"/>
+      <c r="H50" t="s">
+        <v>229</v>
+      </c>
+      <c r="I50" s="1">
+        <v>60</v>
+      </c>
+      <c r="J50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="5">
+        <v>30</v>
+      </c>
       <c r="C51" s="24"/>
       <c r="E51" s="3"/>
-      <c r="K51" s="24"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="5" t="s">
+      <c r="H51" t="s">
+        <v>235</v>
+      </c>
+      <c r="I51" s="1">
+        <v>910</v>
+      </c>
+      <c r="J51" t="s">
+        <v>171</v>
+      </c>
+      <c r="K51" s="24">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K52" s="24"/>
+    </row>
+    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="24"/>
+      <c r="E53" s="3"/>
+      <c r="K53" s="24"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="26"/>
-      <c r="E52" s="5"/>
-      <c r="K52" s="26"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="2" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="26"/>
+      <c r="E54" s="5"/>
+      <c r="K54" s="24"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="3" t="s">
+      <c r="K55" s="24"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="24"/>
-      <c r="E54" s="3"/>
-      <c r="K54" s="24"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="2" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="24"/>
+      <c r="E56" s="3"/>
+      <c r="K56" s="24"/>
+    </row>
+    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="6" t="s">
+      <c r="K57" s="24"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="27"/>
-      <c r="E56" s="6"/>
-      <c r="K56" s="27"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="3" t="s">
+      <c r="B58" s="6"/>
+      <c r="C58" s="27"/>
+      <c r="E58" s="6"/>
+      <c r="K58" s="24"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="24"/>
-      <c r="E57" s="3"/>
-      <c r="K57" s="24"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="2" t="s">
+      <c r="B59" s="3"/>
+      <c r="C59" s="24"/>
+      <c r="E59" s="3"/>
+      <c r="K59" s="24"/>
+    </row>
+    <row r="60" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="2" t="s">
+      <c r="K60" s="24"/>
+    </row>
+    <row r="61" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="2" t="s">
+      <c r="K61" s="24"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="K62" s="24"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="2" t="s">
+      <c r="K63" s="24"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="2" t="s">
+      <c r="H64" t="s">
+        <v>190</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J64" t="s">
+        <v>171</v>
+      </c>
+      <c r="K64" s="24">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="7" t="s">
+      <c r="H65" t="s">
+        <v>247</v>
+      </c>
+      <c r="I65" s="1">
+        <v>7850</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
+      <c r="K65" s="24">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="28"/>
-      <c r="E63" s="7"/>
-      <c r="K63" s="28"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="2" t="s">
+      <c r="B66" s="7"/>
+      <c r="C66" s="28"/>
+      <c r="E66" s="7"/>
+      <c r="H66" t="s">
+        <v>185</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J66" t="s">
+        <v>171</v>
+      </c>
+      <c r="K66" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="3" t="s">
+      <c r="H67" t="s">
+        <v>185</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J67" t="s">
+        <v>171</v>
+      </c>
+      <c r="K67" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B65" s="3">
-        <v>30</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="E65" s="3"/>
-      <c r="H65" t="s">
+      <c r="B68" s="3">
+        <v>30</v>
+      </c>
+      <c r="C68" s="24"/>
+      <c r="E68" s="3"/>
+      <c r="H68" t="s">
         <v>226</v>
       </c>
-      <c r="I65" s="1">
+      <c r="I68" s="1">
         <v>470</v>
       </c>
-      <c r="J65" t="s">
-        <v>171</v>
-      </c>
-      <c r="K65" s="24">
+      <c r="J68" t="s">
+        <v>171</v>
+      </c>
+      <c r="K68" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="3" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="24"/>
-      <c r="E66" s="3"/>
-      <c r="K66" s="24"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="24"/>
       <c r="E69" s="3"/>
       <c r="K69" s="24"/>
     </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K70" s="24"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s">
+        <v>248</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J71" t="s">
+        <v>171</v>
+      </c>
+      <c r="K71" s="24">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="24"/>
+      <c r="E72" s="3"/>
+      <c r="K72" s="24"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="A71" s="3" t="s">
+      <c r="K73" s="24"/>
+    </row>
+    <row r="74" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="24"/>
-      <c r="E71" s="3"/>
-      <c r="K71" s="24"/>
-    </row>
-    <row r="72" spans="1:12">
-      <c r="A72" s="2" t="s">
+      <c r="B74" s="3"/>
+      <c r="C74" s="24"/>
+      <c r="E74" s="3"/>
+      <c r="K74" s="24"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="2">
-        <v>30</v>
-      </c>
-      <c r="C72" s="23">
+      <c r="B75" s="2">
+        <v>30</v>
+      </c>
+      <c r="C75" s="23">
         <v>850</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H75" t="s">
         <v>231</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I75" s="1">
         <v>925</v>
       </c>
-      <c r="J72" t="s">
-        <v>171</v>
-      </c>
-      <c r="K72" s="23">
+      <c r="J75" t="s">
+        <v>171</v>
+      </c>
+      <c r="K75" s="24">
         <v>0.155</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="3" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B73" s="2">
-        <v>30</v>
-      </c>
-      <c r="C73" s="23">
+      <c r="B76" s="2">
+        <v>30</v>
+      </c>
+      <c r="C76" s="23">
         <v>850</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H76" t="s">
         <v>231</v>
       </c>
-      <c r="I73" s="1">
+      <c r="I76" s="1">
         <v>925</v>
       </c>
-      <c r="J73" t="s">
-        <v>171</v>
-      </c>
-      <c r="K73" s="23">
+      <c r="J76" t="s">
+        <v>171</v>
+      </c>
+      <c r="K76" s="24">
         <v>0.155</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="3" t="s">
+    <row r="77" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="2">
-        <v>30</v>
-      </c>
-      <c r="C74" s="23">
+      <c r="B77" s="2">
+        <v>30</v>
+      </c>
+      <c r="C77" s="23">
         <v>850</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H77" t="s">
         <v>231</v>
       </c>
-      <c r="I74" s="1">
+      <c r="I77" s="1">
         <v>925</v>
       </c>
-      <c r="J74" t="s">
-        <v>171</v>
-      </c>
-      <c r="K74" s="23">
+      <c r="J77" t="s">
+        <v>171</v>
+      </c>
+      <c r="K77" s="24">
         <v>0.155</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="2" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="3" t="s">
+      <c r="H78" t="s">
+        <v>249</v>
+      </c>
+      <c r="I78" s="1">
+        <v>1100</v>
+      </c>
+      <c r="J78" t="s">
+        <v>171</v>
+      </c>
+      <c r="K78" s="24">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="24"/>
-      <c r="E76" s="3"/>
-      <c r="K76" s="24"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="2" t="s">
+      <c r="B79" s="3"/>
+      <c r="C79" s="24"/>
+      <c r="E79" s="3"/>
+      <c r="K79" s="24"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="34" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="15.75">
-      <c r="A78" s="6" t="s">
+      <c r="K80" s="24"/>
+    </row>
+    <row r="81" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="27"/>
-      <c r="E78" s="6"/>
-      <c r="H78" t="s">
+      <c r="B81" s="6"/>
+      <c r="C81" s="27"/>
+      <c r="E81" s="6"/>
+      <c r="H81" t="s">
         <v>185</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I81" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="J78" t="s">
-        <v>171</v>
-      </c>
-      <c r="K78" s="27">
+      <c r="J81" t="s">
+        <v>171</v>
+      </c>
+      <c r="K81" s="24">
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="2" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B82" s="2">
         <v>60</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C82" s="23">
         <v>225</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H82" t="s">
         <v>219</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J79" t="s">
-        <v>171</v>
-      </c>
-      <c r="K79" s="23">
+      <c r="J82" t="s">
+        <v>171</v>
+      </c>
+      <c r="K82" s="24">
         <v>0.155</v>
       </c>
-      <c r="L79" s="33" t="s">
+      <c r="L82" s="33" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="3" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="24"/>
-      <c r="E80" s="3"/>
-      <c r="K80" s="24"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="3" t="s">
+      <c r="B83" s="3"/>
+      <c r="C83" s="24"/>
+      <c r="E83" s="3"/>
+      <c r="K83" s="24"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="24"/>
-      <c r="E81" s="3"/>
-      <c r="K81" s="24"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B82" s="5"/>
-      <c r="C82" s="26"/>
-      <c r="E82" s="5"/>
-      <c r="K82" s="26"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="24"/>
       <c r="E84" s="3"/>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="26"/>
+      <c r="E85" s="5"/>
+      <c r="H85" t="s">
+        <v>232</v>
+      </c>
+      <c r="I85" s="1">
+        <v>2150</v>
+      </c>
+      <c r="J85" t="s">
+        <v>171</v>
+      </c>
+      <c r="K85" s="24">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>250</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1550</v>
+      </c>
+      <c r="J86" t="s">
+        <v>171</v>
+      </c>
+      <c r="K86" s="24">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="24"/>
+      <c r="E87" s="3"/>
+      <c r="H87" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I87" s="39">
+        <v>2.9</v>
+      </c>
+      <c r="J87" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K87" s="41">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="3">
-        <v>30</v>
-      </c>
-      <c r="C85" s="24"/>
-      <c r="E85" s="3"/>
-      <c r="H85" t="s">
+      <c r="B88" s="3">
+        <v>30</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="E88" s="3"/>
+      <c r="H88" t="s">
         <v>226</v>
       </c>
-      <c r="I85" s="1">
+      <c r="I88" s="1">
         <v>470</v>
       </c>
-      <c r="J85" t="s">
-        <v>171</v>
-      </c>
-      <c r="K85" s="24">
+      <c r="J88" t="s">
+        <v>171</v>
+      </c>
+      <c r="K88" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3">
-        <v>30</v>
-      </c>
-      <c r="C86" s="24"/>
-      <c r="E86" s="3"/>
-      <c r="H86" t="s">
-        <v>229</v>
-      </c>
-      <c r="I86">
-        <v>60</v>
-      </c>
-      <c r="J86" t="s">
-        <v>171</v>
-      </c>
-      <c r="K86">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="3"/>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
+      <c r="B89" s="3">
+        <v>30</v>
+      </c>
       <c r="C89" s="24"/>
       <c r="E89" s="3"/>
-      <c r="K89" s="24"/>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="24"/>
-      <c r="E90" s="3"/>
+      <c r="H89" t="s">
+        <v>229</v>
+      </c>
+      <c r="I89" s="1">
+        <v>60</v>
+      </c>
+      <c r="J89" t="s">
+        <v>171</v>
+      </c>
+      <c r="K89" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="34" t="s">
+        <v>105</v>
+      </c>
       <c r="K90" s="24"/>
     </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" s="5"/>
-      <c r="C91" s="26"/>
-      <c r="E91" s="5"/>
-      <c r="K91" s="26"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="3" t="s">
-        <v>88</v>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="K91" s="24"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="24"/>
       <c r="E92" s="3"/>
-      <c r="K92" s="24"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="3" t="s">
-        <v>144</v>
+      <c r="H92" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="I92" s="39">
+        <v>63.3</v>
+      </c>
+      <c r="J92" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="K92" s="41">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="24"/>
       <c r="E93" s="3"/>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="24"/>
-      <c r="E94" s="3"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="5"/>
+      <c r="C94" s="26"/>
+      <c r="E94" s="5"/>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="3" t="s">
-        <v>151</v>
+    <row r="95" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="24"/>
       <c r="E95" s="3"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="3" t="s">
-        <v>127</v>
+    <row r="96" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="24"/>
+      <c r="E96" s="3"/>
+      <c r="K96" s="24"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="24"/>
       <c r="E97" s="3"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="24"/>
+      <c r="E98" s="3"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="K99" s="24"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="24"/>
+      <c r="E100" s="3"/>
+      <c r="K100" s="24"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="34" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B99" s="2">
-        <v>30</v>
-      </c>
-      <c r="C99" s="23">
+      <c r="K101" s="24"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="2">
+        <v>30</v>
+      </c>
+      <c r="C102" s="23">
         <v>940</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H102" t="s">
         <v>233</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I102" s="1">
         <v>920</v>
       </c>
-      <c r="J99" t="s">
-        <v>171</v>
-      </c>
-      <c r="K99" s="23">
+      <c r="J102" t="s">
+        <v>171</v>
+      </c>
+      <c r="K102" s="24">
         <v>5.53</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B100" s="2">
-        <v>30</v>
-      </c>
-      <c r="C100" s="23">
+      <c r="B103" s="2">
+        <v>30</v>
+      </c>
+      <c r="C103" s="23">
         <v>940</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H103" t="s">
         <v>233</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I103" s="1">
         <v>920</v>
       </c>
-      <c r="J100" t="s">
-        <v>171</v>
-      </c>
-      <c r="K100" s="23">
+      <c r="J103" t="s">
+        <v>171</v>
+      </c>
+      <c r="K103" s="24">
         <v>5.53</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="34" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="3" t="s">
+      <c r="K104" s="24"/>
+    </row>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="24"/>
-      <c r="E102" s="3"/>
-      <c r="K102" s="24"/>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="24"/>
-      <c r="E103" s="3"/>
-      <c r="K103" s="24"/>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="24"/>
-      <c r="E104" s="3"/>
-      <c r="K104" s="24"/>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="24"/>
       <c r="E105" s="3"/>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="3">
-        <v>30</v>
-      </c>
-      <c r="C106" s="24">
-        <v>30</v>
-      </c>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="24"/>
       <c r="E106" s="3"/>
-      <c r="H106" t="s">
-        <v>187</v>
-      </c>
-      <c r="I106" s="1">
-        <v>30</v>
-      </c>
-      <c r="J106" t="s">
-        <v>171</v>
-      </c>
-      <c r="K106" s="24">
-        <v>7.52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="3" t="s">
-        <v>145</v>
+      <c r="K106" s="24"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="24"/>
       <c r="E107" s="3"/>
-      <c r="K107" s="24"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="24"/>
+      <c r="H107" t="s">
+        <v>253</v>
+      </c>
+      <c r="I107" s="1">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s">
+        <v>171</v>
+      </c>
+      <c r="K107" s="24">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="24"/>
+      <c r="E108" s="3"/>
+      <c r="H108" t="s">
+        <v>235</v>
+      </c>
+      <c r="I108" s="1">
+        <v>910</v>
+      </c>
+      <c r="J108" t="s">
+        <v>171</v>
+      </c>
+      <c r="K108" s="24">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="3">
+        <v>30</v>
+      </c>
+      <c r="C109" s="24">
+        <v>30</v>
+      </c>
       <c r="E109" s="3"/>
-      <c r="K109" s="24"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="3" t="s">
-        <v>79</v>
+      <c r="H109" t="s">
+        <v>187</v>
+      </c>
+      <c r="I109" s="1">
+        <v>30</v>
+      </c>
+      <c r="J109" t="s">
+        <v>171</v>
+      </c>
+      <c r="K109" s="24">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="24"/>
       <c r="E110" s="3"/>
       <c r="K110" s="24"/>
     </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="3" t="s">
-        <v>129</v>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K111" s="24"/>
+    </row>
+    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="24"/>
       <c r="E112" s="3"/>
       <c r="K112" s="24"/>
     </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="3" t="s">
-        <v>137</v>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="24"/>
       <c r="E113" s="3"/>
       <c r="K113" s="24"/>
     </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B114" s="5"/>
-      <c r="C114" s="26"/>
-      <c r="E114" s="5"/>
-      <c r="K114" s="26"/>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="3">
-        <v>30</v>
-      </c>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="K114" s="24"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B115" s="3"/>
       <c r="C115" s="24"/>
       <c r="E115" s="3"/>
-      <c r="H115" t="s">
-        <v>229</v>
-      </c>
-      <c r="I115" s="1">
-        <v>100</v>
-      </c>
-      <c r="J115" t="s">
-        <v>171</v>
-      </c>
-      <c r="K115" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B116" s="3">
-        <v>30</v>
-      </c>
+      <c r="K115" s="24"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="3"/>
       <c r="C116" s="24"/>
       <c r="E116" s="3"/>
-      <c r="H116" t="s">
-        <v>229</v>
-      </c>
-      <c r="I116" s="1">
-        <v>60</v>
-      </c>
-      <c r="J116" t="s">
-        <v>171</v>
-      </c>
-      <c r="K116" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B117" s="3">
-        <v>30</v>
-      </c>
-      <c r="C117" s="24"/>
-      <c r="E117" s="3"/>
-      <c r="H117" t="s">
-        <v>229</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="J117" t="s">
-        <v>171</v>
-      </c>
-      <c r="K117" s="24">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B118" s="5">
+      <c r="K116" s="24"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B117" s="5"/>
+      <c r="C117" s="26"/>
+      <c r="E117" s="5"/>
+      <c r="K117" s="24"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B118" s="3">
         <v>30</v>
       </c>
       <c r="C118" s="24"/>
@@ -2971,7 +3480,7 @@
         <v>229</v>
       </c>
       <c r="I118" s="1">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="J118" t="s">
         <v>171</v>
@@ -2980,11 +3489,11 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B119" s="5">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B119" s="3">
         <v>30</v>
       </c>
       <c r="C119" s="24"/>
@@ -3002,9 +3511,9 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="3" t="s">
-        <v>146</v>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B120" s="3">
         <v>30</v>
@@ -3012,274 +3521,298 @@
       <c r="C120" s="24"/>
       <c r="E120" s="3"/>
       <c r="H120" t="s">
-        <v>227</v>
-      </c>
-      <c r="I120">
-        <v>2000</v>
+        <v>229</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="J120" t="s">
         <v>171</v>
       </c>
-      <c r="K120">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A121" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B121" s="2">
-        <v>30</v>
-      </c>
+      <c r="K120" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="5">
+        <v>30</v>
+      </c>
+      <c r="C121" s="24"/>
+      <c r="E121" s="3"/>
       <c r="H121" t="s">
-        <v>227</v>
-      </c>
-      <c r="I121">
-        <v>2000</v>
+        <v>229</v>
+      </c>
+      <c r="I121" s="1">
+        <v>160</v>
       </c>
       <c r="J121" t="s">
         <v>171</v>
       </c>
-      <c r="K121">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A122" s="3" t="s">
-        <v>31</v>
+      <c r="K121" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B122" s="5">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C122" s="24"/>
       <c r="E122" s="3"/>
-      <c r="H122" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="I122" s="38">
-        <v>1400</v>
-      </c>
-      <c r="J122" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K122" s="38">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A123" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B123" s="5">
+      <c r="H122" t="s">
+        <v>229</v>
+      </c>
+      <c r="I122" s="1">
         <v>60</v>
+      </c>
+      <c r="J122" t="s">
+        <v>171</v>
+      </c>
+      <c r="K122" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" s="3">
+        <v>30</v>
       </c>
       <c r="C123" s="24"/>
       <c r="E123" s="3"/>
-      <c r="H123" s="38" t="s">
+      <c r="H123" t="s">
+        <v>227</v>
+      </c>
+      <c r="I123" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J123" t="s">
+        <v>171</v>
+      </c>
+      <c r="K123" s="24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" s="2">
+        <v>30</v>
+      </c>
+      <c r="H124" t="s">
+        <v>227</v>
+      </c>
+      <c r="I124" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J124" t="s">
+        <v>171</v>
+      </c>
+      <c r="K124" s="24">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B125" s="5">
+        <v>60</v>
+      </c>
+      <c r="C125" s="24"/>
+      <c r="E125" s="3"/>
+      <c r="H125" t="s">
         <v>195</v>
       </c>
-      <c r="I123" s="38">
+      <c r="I125" s="1">
         <v>1400</v>
       </c>
-      <c r="J123" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="K123" s="38">
+      <c r="J125" t="s">
+        <v>171</v>
+      </c>
+      <c r="K125" s="24">
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="2" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B126" s="5">
+        <v>60</v>
+      </c>
+      <c r="C126" s="24"/>
+      <c r="E126" s="3"/>
+      <c r="H126" t="s">
+        <v>195</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1400</v>
+      </c>
+      <c r="J126" t="s">
+        <v>171</v>
+      </c>
+      <c r="K126" s="24">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="34" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="3" t="s">
+      <c r="H127" t="s">
+        <v>254</v>
+      </c>
+      <c r="I127" s="1">
+        <v>675</v>
+      </c>
+      <c r="J127" t="s">
+        <v>171</v>
+      </c>
+      <c r="K127" s="24">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B125" s="2">
-        <v>30</v>
-      </c>
-      <c r="C125" s="23">
-        <v>30</v>
-      </c>
-      <c r="H125" t="s">
+      <c r="B128" s="2">
+        <v>30</v>
+      </c>
+      <c r="C128" s="23">
+        <v>30</v>
+      </c>
+      <c r="H128" t="s">
         <v>224</v>
       </c>
-      <c r="I125" s="1">
+      <c r="I128" s="1">
         <v>485</v>
       </c>
-      <c r="J125" t="s">
-        <v>171</v>
-      </c>
-      <c r="K125" s="23">
+      <c r="J128" t="s">
+        <v>171</v>
+      </c>
+      <c r="K128" s="24">
         <v>0.125</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="2" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="2">
-        <v>30</v>
-      </c>
-      <c r="C126" s="23">
-        <v>30</v>
-      </c>
-      <c r="H126" t="s">
+      <c r="B129" s="2">
+        <v>30</v>
+      </c>
+      <c r="C129" s="23">
+        <v>30</v>
+      </c>
+      <c r="H129" t="s">
         <v>224</v>
       </c>
-      <c r="I126" s="1">
+      <c r="I129" s="1">
         <v>485</v>
       </c>
-      <c r="J126" t="s">
-        <v>171</v>
-      </c>
-      <c r="K126" s="23">
+      <c r="J129" t="s">
+        <v>171</v>
+      </c>
+      <c r="K129" s="24">
         <v>0.125</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="2" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="34" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="3" t="s">
+      <c r="K130" s="24"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="24"/>
-      <c r="E128" s="3"/>
-      <c r="K128" s="24"/>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="2" t="s">
+      <c r="B131" s="3"/>
+      <c r="C131" s="24"/>
+      <c r="E131" s="3"/>
+      <c r="K131" s="24"/>
+    </row>
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="34" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="3" t="s">
+      <c r="K132" s="24"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="24"/>
-      <c r="E130" s="3"/>
-      <c r="K130" s="24"/>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="2" t="s">
+      <c r="B133" s="3"/>
+      <c r="C133" s="24"/>
+      <c r="E133" s="3"/>
+      <c r="K133" s="24"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="2" t="s">
+      <c r="K134" s="24"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="34" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="2" t="s">
+      <c r="K135" s="24"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="34" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="3" t="s">
+      <c r="K136" s="24"/>
+    </row>
+    <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="24"/>
-      <c r="E134" s="3"/>
-      <c r="K134" s="24"/>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="3" t="s">
+      <c r="B137" s="3"/>
+      <c r="C137" s="24"/>
+      <c r="E137" s="3"/>
+      <c r="K137" s="24"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="24"/>
-      <c r="E135" s="3"/>
-      <c r="K135" s="24"/>
-    </row>
-    <row r="136" spans="1:11" ht="15.75">
-      <c r="A136" s="6" t="s">
+      <c r="B138" s="3"/>
+      <c r="C138" s="24"/>
+      <c r="E138" s="3"/>
+      <c r="K138" s="24"/>
+    </row>
+    <row r="139" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="27"/>
-      <c r="E136" s="6"/>
-      <c r="K136" s="27"/>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="2" t="s">
+      <c r="B139" s="6"/>
+      <c r="C139" s="27"/>
+      <c r="E139" s="6"/>
+      <c r="K139" s="24"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B137" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="2" t="s">
+      <c r="B140" s="2">
+        <v>30</v>
+      </c>
+      <c r="K140" s="24"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="34" t="s">
         <v>52</v>
-      </c>
-      <c r="B138" s="2">
-        <v>30</v>
-      </c>
-      <c r="H138" t="s">
-        <v>226</v>
-      </c>
-      <c r="I138" s="1">
-        <v>470</v>
-      </c>
-      <c r="J138" t="s">
-        <v>171</v>
-      </c>
-      <c r="K138" s="23">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B139" s="2">
-        <v>30</v>
-      </c>
-      <c r="H139" t="s">
-        <v>226</v>
-      </c>
-      <c r="I139" s="1">
-        <v>470</v>
-      </c>
-      <c r="J139" t="s">
-        <v>171</v>
-      </c>
-      <c r="K139" s="23">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B140" s="2">
-        <v>30</v>
-      </c>
-      <c r="H140" t="s">
-        <v>226</v>
-      </c>
-      <c r="I140" s="1">
-        <v>470</v>
-      </c>
-      <c r="J140" t="s">
-        <v>171</v>
-      </c>
-      <c r="K140" s="23">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="B141" s="2">
         <v>30</v>
@@ -3293,13 +3826,13 @@
       <c r="J141" t="s">
         <v>171</v>
       </c>
-      <c r="K141" s="23">
+      <c r="K141" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="2" t="s">
-        <v>96</v>
+    <row r="142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="34" t="s">
+        <v>53</v>
       </c>
       <c r="B142" s="2">
         <v>30</v>
@@ -3313,13 +3846,13 @@
       <c r="J142" t="s">
         <v>171</v>
       </c>
-      <c r="K142" s="23">
+      <c r="K142" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="2" t="s">
-        <v>139</v>
+    <row r="143" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="34" t="s">
+        <v>94</v>
       </c>
       <c r="B143" s="2">
         <v>30</v>
@@ -3333,13 +3866,13 @@
       <c r="J143" t="s">
         <v>171</v>
       </c>
-      <c r="K143" s="23">
+      <c r="K143" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="2" t="s">
-        <v>33</v>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="B144" s="2">
         <v>30</v>
@@ -3353,13 +3886,13 @@
       <c r="J144" t="s">
         <v>171</v>
       </c>
-      <c r="K144" s="23">
+      <c r="K144" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="2" t="s">
-        <v>140</v>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="34" t="s">
+        <v>96</v>
       </c>
       <c r="B145" s="2">
         <v>30</v>
@@ -3373,13 +3906,13 @@
       <c r="J145" t="s">
         <v>171</v>
       </c>
-      <c r="K145" s="23">
+      <c r="K145" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="2" t="s">
-        <v>73</v>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="34" t="s">
+        <v>139</v>
       </c>
       <c r="B146" s="2">
         <v>30</v>
@@ -3393,13 +3926,13 @@
       <c r="J146" t="s">
         <v>171</v>
       </c>
-      <c r="K146" s="23">
+      <c r="K146" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
-      <c r="A147" s="2" t="s">
-        <v>130</v>
+    <row r="147" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="34" t="s">
+        <v>33</v>
       </c>
       <c r="B147" s="2">
         <v>30</v>
@@ -3413,13 +3946,13 @@
       <c r="J147" t="s">
         <v>171</v>
       </c>
-      <c r="K147" s="23">
+      <c r="K147" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:11">
-      <c r="A148" s="2" t="s">
-        <v>74</v>
+    <row r="148" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="B148" s="2">
         <v>30</v>
@@ -3433,13 +3966,13 @@
       <c r="J148" t="s">
         <v>171</v>
       </c>
-      <c r="K148" s="23">
+      <c r="K148" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
-      <c r="A149" s="2" t="s">
-        <v>108</v>
+    <row r="149" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A149" s="34" t="s">
+        <v>73</v>
       </c>
       <c r="B149" s="2">
         <v>30</v>
@@ -3453,13 +3986,13 @@
       <c r="J149" t="s">
         <v>171</v>
       </c>
-      <c r="K149" s="23">
+      <c r="K149" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
-      <c r="A150" s="2" t="s">
-        <v>54</v>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="B150" s="2">
         <v>30</v>
@@ -3473,13 +4006,13 @@
       <c r="J150" t="s">
         <v>171</v>
       </c>
-      <c r="K150" s="23">
+      <c r="K150" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
-      <c r="A151" s="2" t="s">
-        <v>55</v>
+    <row r="151" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="B151" s="2">
         <v>30</v>
@@ -3493,13 +4026,13 @@
       <c r="J151" t="s">
         <v>171</v>
       </c>
-      <c r="K151" s="23">
+      <c r="K151" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="2" t="s">
-        <v>56</v>
+    <row r="152" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="34" t="s">
+        <v>108</v>
       </c>
       <c r="B152" s="2">
         <v>30</v>
@@ -3513,13 +4046,13 @@
       <c r="J152" t="s">
         <v>171</v>
       </c>
-      <c r="K152" s="23">
+      <c r="K152" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="2" t="s">
-        <v>158</v>
+    <row r="153" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="34" t="s">
+        <v>54</v>
       </c>
       <c r="B153" s="2">
         <v>30</v>
@@ -3533,13 +4066,13 @@
       <c r="J153" t="s">
         <v>171</v>
       </c>
-      <c r="K153" s="23">
+      <c r="K153" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
-      <c r="A154" s="2" t="s">
-        <v>34</v>
+    <row r="154" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="34" t="s">
+        <v>55</v>
       </c>
       <c r="B154" s="2">
         <v>30</v>
@@ -3553,13 +4086,13 @@
       <c r="J154" t="s">
         <v>171</v>
       </c>
-      <c r="K154" s="23">
+      <c r="K154" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:11">
-      <c r="A155" s="2" t="s">
-        <v>35</v>
+    <row r="155" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="34" t="s">
+        <v>56</v>
       </c>
       <c r="B155" s="2">
         <v>30</v>
@@ -3573,13 +4106,13 @@
       <c r="J155" t="s">
         <v>171</v>
       </c>
-      <c r="K155" s="23">
+      <c r="K155" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="2" t="s">
-        <v>57</v>
+    <row r="156" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="B156" s="2">
         <v>30</v>
@@ -3593,13 +4126,13 @@
       <c r="J156" t="s">
         <v>171</v>
       </c>
-      <c r="K156" s="23">
+      <c r="K156" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="2" t="s">
-        <v>58</v>
+    <row r="157" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="B157" s="2">
         <v>30</v>
@@ -3613,19 +4146,17 @@
       <c r="J157" t="s">
         <v>171</v>
       </c>
-      <c r="K157" s="23">
+      <c r="K157" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="3" t="s">
-        <v>131</v>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
+        <v>35</v>
       </c>
       <c r="B158" s="2">
         <v>30</v>
       </c>
-      <c r="C158" s="24"/>
-      <c r="E158" s="3"/>
       <c r="H158" t="s">
         <v>226</v>
       </c>
@@ -3635,19 +4166,17 @@
       <c r="J158" t="s">
         <v>171</v>
       </c>
-      <c r="K158" s="23">
+      <c r="K158" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="3" t="s">
-        <v>83</v>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" s="34" t="s">
+        <v>57</v>
       </c>
       <c r="B159" s="2">
         <v>30</v>
       </c>
-      <c r="C159" s="24"/>
-      <c r="E159" s="3"/>
       <c r="H159" t="s">
         <v>226</v>
       </c>
@@ -3657,13 +4186,13 @@
       <c r="J159" t="s">
         <v>171</v>
       </c>
-      <c r="K159" s="23">
+      <c r="K159" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="2" t="s">
-        <v>59</v>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="34" t="s">
+        <v>58</v>
       </c>
       <c r="B160" s="2">
         <v>30</v>
@@ -3677,13 +4206,13 @@
       <c r="J160" t="s">
         <v>171</v>
       </c>
-      <c r="K160" s="23">
+      <c r="K160" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="3" t="s">
-        <v>36</v>
+    <row r="161" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B161" s="2">
         <v>30</v>
@@ -3699,17 +4228,19 @@
       <c r="J161" t="s">
         <v>171</v>
       </c>
-      <c r="K161" s="23">
+      <c r="K161" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:11">
-      <c r="A162" s="2" t="s">
-        <v>107</v>
+    <row r="162" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B162" s="2">
         <v>30</v>
       </c>
+      <c r="C162" s="24"/>
+      <c r="E162" s="3"/>
       <c r="H162" t="s">
         <v>226</v>
       </c>
@@ -3719,13 +4250,13 @@
       <c r="J162" t="s">
         <v>171</v>
       </c>
-      <c r="K162" s="23">
+      <c r="K162" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="2" t="s">
-        <v>60</v>
+    <row r="163" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="B163" s="2">
         <v>30</v>
@@ -3739,68 +4270,580 @@
       <c r="J163" t="s">
         <v>171</v>
       </c>
-      <c r="K163" s="23">
+      <c r="K163" s="24">
         <v>0.44600000000000001</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
-      <c r="A164" s="2" t="s">
+    <row r="164" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B164" s="2">
+        <v>30</v>
+      </c>
+      <c r="C164" s="24"/>
+      <c r="E164" s="3"/>
+      <c r="H164" t="s">
+        <v>226</v>
+      </c>
+      <c r="I164" s="1">
+        <v>470</v>
+      </c>
+      <c r="J164" t="s">
+        <v>171</v>
+      </c>
+      <c r="K164" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="2">
+        <v>30</v>
+      </c>
+      <c r="H165" t="s">
+        <v>226</v>
+      </c>
+      <c r="I165" s="1">
+        <v>470</v>
+      </c>
+      <c r="J165" t="s">
+        <v>171</v>
+      </c>
+      <c r="K165" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" s="2">
+        <v>30</v>
+      </c>
+      <c r="H166" t="s">
+        <v>226</v>
+      </c>
+      <c r="I166" s="1">
+        <v>470</v>
+      </c>
+      <c r="J166" t="s">
+        <v>171</v>
+      </c>
+      <c r="K166" s="24">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A167" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B164" s="2">
-        <v>30</v>
-      </c>
-      <c r="C164" s="23">
+      <c r="B167" s="2">
+        <v>30</v>
+      </c>
+      <c r="C167" s="23">
         <v>940</v>
       </c>
-      <c r="H164" t="s">
+      <c r="H167" t="s">
         <v>225</v>
       </c>
-      <c r="I164" s="1">
+      <c r="I167" s="1">
         <v>920</v>
       </c>
-      <c r="J164" t="s">
-        <v>171</v>
-      </c>
-      <c r="K164" s="23">
+      <c r="J167" t="s">
+        <v>171</v>
+      </c>
+      <c r="K167" s="24">
         <v>5.33</v>
       </c>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="3" t="s">
+      <c r="N167" s="42"/>
+      <c r="Q167" s="42"/>
+      <c r="R167" s="42"/>
+      <c r="S167" s="42"/>
+      <c r="T167" s="44"/>
+      <c r="U167" s="43"/>
+    </row>
+    <row r="168" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B165" s="3"/>
-      <c r="C165" s="24"/>
-      <c r="E165" s="3"/>
-      <c r="K165" s="24"/>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="3" t="s">
+      <c r="B168" s="2">
+        <v>30</v>
+      </c>
+      <c r="C168" s="24"/>
+      <c r="E168" s="3"/>
+      <c r="K168" s="24"/>
+      <c r="N168" s="42"/>
+      <c r="Q168" s="43"/>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="24"/>
-      <c r="E166" s="3"/>
-      <c r="K166" s="24"/>
-    </row>
-    <row r="167" spans="1:11">
-      <c r="A167" s="3" t="s">
+      <c r="B169" s="2">
+        <v>30</v>
+      </c>
+      <c r="C169" s="24"/>
+      <c r="E169" s="3"/>
+      <c r="K169" s="24"/>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="24"/>
-      <c r="E167" s="3"/>
-      <c r="K167" s="24"/>
+      <c r="B170" s="2">
+        <v>30</v>
+      </c>
+      <c r="C170" s="24"/>
+      <c r="E170" s="3"/>
+      <c r="K170" s="24"/>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A171" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="B171" s="2">
+        <v>30</v>
+      </c>
+      <c r="H171" t="s">
+        <v>266</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J171" t="s">
+        <v>239</v>
+      </c>
+      <c r="K171" s="23">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A172" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="B172" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A173" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A174" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B174" s="2">
+        <v>30</v>
+      </c>
+      <c r="H174" t="s">
+        <v>268</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J174" t="s">
+        <v>239</v>
+      </c>
+      <c r="K174" s="23">
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A175" s="45" t="s">
+        <v>259</v>
+      </c>
+      <c r="B175" s="2">
+        <v>30</v>
+      </c>
+      <c r="C175" s="23">
+        <v>83.4</v>
+      </c>
+      <c r="H175" t="s">
+        <v>271</v>
+      </c>
+      <c r="I175" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J175" t="s">
+        <v>273</v>
+      </c>
+      <c r="K175" s="23">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L175" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A176" s="45"/>
+      <c r="B176" s="2">
+        <v>30</v>
+      </c>
+      <c r="H176" t="s">
+        <v>270</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J176" t="s">
+        <v>239</v>
+      </c>
+      <c r="K176" s="23">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A177" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="2">
+        <v>30</v>
+      </c>
+      <c r="H177" t="s">
+        <v>271</v>
+      </c>
+      <c r="I177" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J177" t="s">
+        <v>273</v>
+      </c>
+      <c r="K177" s="23">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L177" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A178" s="45"/>
+      <c r="B178" s="2">
+        <v>30</v>
+      </c>
+      <c r="H178" t="s">
+        <v>269</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J178" t="s">
+        <v>239</v>
+      </c>
+      <c r="K178" s="23">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A179" s="42" t="s">
+        <v>261</v>
+      </c>
+      <c r="B179" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>262</v>
+      </c>
+      <c r="B180" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A181" s="45" t="s">
+        <v>263</v>
+      </c>
+      <c r="B181" s="2">
+        <v>30</v>
+      </c>
+      <c r="H181" t="s">
+        <v>271</v>
+      </c>
+      <c r="I181" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J181" t="s">
+        <v>273</v>
+      </c>
+      <c r="K181" s="23">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L181" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A182" s="45"/>
+      <c r="B182" s="2">
+        <v>30</v>
+      </c>
+      <c r="H182" t="s">
+        <v>270</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J182" t="s">
+        <v>239</v>
+      </c>
+      <c r="K182" s="23">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A183" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="H183" t="s">
+        <v>271</v>
+      </c>
+      <c r="I183" s="1">
+        <v>83.4</v>
+      </c>
+      <c r="J183" t="s">
+        <v>273</v>
+      </c>
+      <c r="K183" s="23">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="L183" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A184" s="45"/>
+      <c r="H184" t="s">
+        <v>269</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J184" t="s">
+        <v>239</v>
+      </c>
+      <c r="K184" s="23">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>276</v>
+      </c>
+      <c r="H186" t="s">
+        <v>275</v>
+      </c>
+      <c r="J186" t="s">
+        <v>274</v>
+      </c>
+      <c r="K186" s="23">
+        <v>4.4990000000000002E-2</v>
+      </c>
+      <c r="L186" t="s">
+        <v>277</v>
+      </c>
+      <c r="M186" s="1"/>
+      <c r="O186" s="23"/>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>289</v>
+      </c>
+      <c r="H187" t="s">
+        <v>192</v>
+      </c>
+      <c r="J187" t="s">
+        <v>193</v>
+      </c>
+      <c r="K187" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>288</v>
+      </c>
+      <c r="H188" t="s">
+        <v>199</v>
+      </c>
+      <c r="J188" t="s">
+        <v>193</v>
+      </c>
+      <c r="K188" s="23">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>287</v>
+      </c>
+      <c r="H189" t="s">
+        <v>192</v>
+      </c>
+      <c r="J189" t="s">
+        <v>193</v>
+      </c>
+      <c r="K189" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>286</v>
+      </c>
+      <c r="H190" t="s">
+        <v>192</v>
+      </c>
+      <c r="J190" t="s">
+        <v>193</v>
+      </c>
+      <c r="K190" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>285</v>
+      </c>
+      <c r="H191" t="s">
+        <v>192</v>
+      </c>
+      <c r="J191" t="s">
+        <v>193</v>
+      </c>
+      <c r="K191" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>282</v>
+      </c>
+      <c r="H194" t="s">
+        <v>192</v>
+      </c>
+      <c r="J194" t="s">
+        <v>193</v>
+      </c>
+      <c r="K194" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>281</v>
+      </c>
+      <c r="H195" t="s">
+        <v>192</v>
+      </c>
+      <c r="J195" t="s">
+        <v>193</v>
+      </c>
+      <c r="K195" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>280</v>
+      </c>
+      <c r="H196" t="s">
+        <v>199</v>
+      </c>
+      <c r="J196" t="s">
+        <v>193</v>
+      </c>
+      <c r="K196" s="23">
+        <v>1.85E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>279</v>
+      </c>
+      <c r="H197" t="s">
+        <v>192</v>
+      </c>
+      <c r="J197" t="s">
+        <v>193</v>
+      </c>
+      <c r="K197" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>278</v>
+      </c>
+      <c r="H198" t="s">
+        <v>192</v>
+      </c>
+      <c r="J198" t="s">
+        <v>193</v>
+      </c>
+      <c r="K198" s="23">
+        <v>8.2799999999999992E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="H199" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="K199" s="23">
+        <v>7.1700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="34" t="s">
+        <v>293</v>
+      </c>
+      <c r="H200" t="s">
+        <v>292</v>
+      </c>
+      <c r="K200" s="23">
+        <v>0.11509999999999999</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:A378">
     <sortCondition ref="A1"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="A30:A31"/>
+  <mergeCells count="10">
     <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A175:A176"/>
+    <mergeCell ref="A177:A178"/>
+    <mergeCell ref="A61:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3810,13 +4853,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -3829,22 +4872,22 @@
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="35" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>163</v>
       </c>
@@ -3873,7 +4916,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>170</v>
       </c>
@@ -3902,7 +4945,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>177</v>
       </c>
@@ -3931,7 +4974,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>180</v>
       </c>
@@ -3960,7 +5003,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>182</v>
       </c>
@@ -3989,7 +5032,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>185</v>
       </c>
@@ -4018,7 +5061,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>187</v>
       </c>
@@ -4047,7 +5090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>190</v>
       </c>
@@ -4076,7 +5119,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4099,7 +5142,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>195</v>
       </c>
@@ -4128,7 +5171,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>197</v>
       </c>
@@ -4157,7 +5200,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4180,7 +5223,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>200</v>
       </c>
@@ -4209,7 +5252,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>202</v>
       </c>
@@ -4238,7 +5281,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>190</v>
       </c>
@@ -4267,26 +5310,49 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="20">
         <v>1</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F18" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G18" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H18" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I18" s="22" t="s">
         <v>176</v>
       </c>
     </row>
